--- a/screen/screenList_appCore.xlsx
+++ b/screen/screenList_appCore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\screen_appCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F38FC2-0668-4781-A1A6-41C8DF23EA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1283E0-BD1E-44F5-A262-AA6C7D2BE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="149">
   <si>
     <t>Descrizione</t>
   </si>
@@ -213,18 +213,12 @@
     <t>ITM</t>
   </si>
   <si>
-    <t>YAMITRENT,YSELITRENT,GSELECT</t>
-  </si>
-  <si>
     <t>UOM</t>
   </si>
   <si>
     <t>QTY</t>
   </si>
   <si>
-    <t>YCQTSTENT,YAMQTSTENT</t>
-  </si>
-  <si>
     <t>EMP</t>
   </si>
   <si>
@@ -295,13 +289,199 @@
   </si>
   <si>
     <t>SERNUM</t>
+  </si>
+  <si>
+    <t>YSMO</t>
+  </si>
+  <si>
+    <t>YSMO1</t>
+  </si>
+  <si>
+    <t>Uscite Diverse</t>
+  </si>
+  <si>
+    <t>Dettaglio</t>
+  </si>
+  <si>
+    <t>KARID2</t>
+  </si>
+  <si>
+    <t>YSMO11</t>
+  </si>
+  <si>
+    <t>YCSTOUSC,YSELFCYUSC</t>
+  </si>
+  <si>
+    <t>YAMITRUSC,YSELITMUSC,GSELECT</t>
+  </si>
+  <si>
+    <t>YAMITRENT,YSELITMENT,GSELECT</t>
+  </si>
+  <si>
+    <t>YCQTSTENT</t>
+  </si>
+  <si>
+    <t>YCLOCUSC,YSELLOCUSC,GSELECT</t>
+  </si>
+  <si>
+    <t>YCLOTUSC,YSELLOTUSC</t>
+  </si>
+  <si>
+    <t>YCSERNUSC</t>
+  </si>
+  <si>
+    <t>YCQTSTUSC</t>
+  </si>
+  <si>
+    <t>YSOH</t>
+  </si>
+  <si>
+    <t>YSOH1</t>
+  </si>
+  <si>
+    <t>YCFCYSOH,YSELFCYSOH</t>
+  </si>
+  <si>
+    <t>SOHTYP</t>
+  </si>
+  <si>
+    <t>TSO</t>
+  </si>
+  <si>
+    <t>Breve</t>
+  </si>
+  <si>
+    <t>YCSOHTSOH,YSELTSOSOH</t>
+  </si>
+  <si>
+    <t>ORDDAT</t>
+  </si>
+  <si>
+    <t>BPRNUM</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>YAMBPRSOH,YSELBPRSOH</t>
+  </si>
+  <si>
+    <t>BPRNAM</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>BPAADDLIG</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>DEMDLVDAT</t>
+  </si>
+  <si>
+    <t>YAMITRSOH, YSELITMSOH</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>YCQTYSOH</t>
+  </si>
+  <si>
+    <t>GROPRI</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>YCGROPSOH</t>
+  </si>
+  <si>
+    <t>DISCRGVAL1</t>
+  </si>
+  <si>
+    <t>YAMREM1SOH</t>
+  </si>
+  <si>
+    <t>DISCRGVAL2</t>
+  </si>
+  <si>
+    <t>YAMREM2SOH</t>
+  </si>
+  <si>
+    <t>NETPRI</t>
+  </si>
+  <si>
+    <t>YTOTALE</t>
+  </si>
+  <si>
+    <t>YCODICE</t>
+  </si>
+  <si>
+    <t>EANCOD</t>
+  </si>
+  <si>
+    <t>YLOC</t>
+  </si>
+  <si>
+    <t>YCALCGIAC</t>
+  </si>
+  <si>
+    <t>YCGC1</t>
+  </si>
+  <si>
+    <t>YSELFCYGC,YCGIACFCY</t>
+  </si>
+  <si>
+    <t>YCGIACYCOD</t>
+  </si>
+  <si>
+    <t>YSELLOCGC,YCGIACLOC</t>
+  </si>
+  <si>
+    <t>SUBYSOH1</t>
+  </si>
+  <si>
+    <t>Ordini di Vendita*</t>
+  </si>
+  <si>
+    <t>YCALCGIAC1</t>
+  </si>
+  <si>
+    <t>Calcolo giacenze</t>
+  </si>
+  <si>
+    <t>YBPC</t>
+  </si>
+  <si>
+    <t>YVSOH</t>
+  </si>
+  <si>
+    <t>YVSOH2</t>
+  </si>
+  <si>
+    <t>YVBPC</t>
+  </si>
+  <si>
+    <t>testata *</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +493,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,19 +560,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -464,11 +637,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,13 +661,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,10 +676,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,20 +694,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +1013,7 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -856,42 +1053,230 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933A112A-BC8C-491C-85D1-E55A41508E51}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,130 +1293,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15">
         <v>100</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15">
+        <v>100</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="15">
+        <v>10</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="15">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
@@ -1041,654 +1607,2829 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="19">
+        <v>100</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="19">
+        <v>100</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>4</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="19">
+        <v>100</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="19">
+        <v>100</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>6</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="19">
+        <v>100</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="19">
+        <v>100</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>8</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="19">
+        <v>100</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="15">
+        <v>100</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="F18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="19">
+        <v>100</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="19">
+        <v>100</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="19">
+        <v>100</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="F23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="19">
+        <v>100</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>7</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="19">
+        <v>3</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="19">
+        <v>100</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>8</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="19">
+        <v>100</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>9</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="15">
+        <v>100</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="J28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19">
+        <v>4</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19">
+        <v>5</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19">
+        <v>6</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>7</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="19">
+        <v>1</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19">
+        <v>8</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="19">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2</v>
+      </c>
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="19">
+        <v>100</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="N37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="19">
+        <v>100</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="19">
+        <v>2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>4</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="19">
+        <v>100</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2</v>
+      </c>
+      <c r="E40" s="19">
+        <v>5</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="19">
+        <v>100</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="19">
+        <v>2</v>
+      </c>
+      <c r="E41" s="19">
+        <v>6</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="19">
+        <v>100</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2</v>
+      </c>
+      <c r="E42" s="19">
+        <v>7</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="19">
+        <v>100</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2</v>
+      </c>
+      <c r="E43" s="19">
+        <v>8</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="19">
+        <v>100</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15">
+        <v>9</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="15">
+        <v>100</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="21">
+        <v>1</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>2</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="19">
+        <v>20</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="20">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="20">
+        <v>1</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="19">
+        <v>2</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D50" s="19">
+        <v>2</v>
+      </c>
+      <c r="E50" s="19">
+        <v>2</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="19">
+        <v>100</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="19">
+        <v>2</v>
+      </c>
+      <c r="E51" s="19">
+        <v>3</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="19">
+        <v>20</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="19">
+        <v>100</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="19">
+        <v>2</v>
+      </c>
+      <c r="E52" s="19">
+        <v>4</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="19">
+        <v>100</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="19">
+        <v>2</v>
+      </c>
+      <c r="E53" s="19">
+        <v>5</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="19">
+        <v>100</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="19">
+        <v>2</v>
+      </c>
+      <c r="E54" s="19">
+        <v>6</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="19">
+        <v>100</v>
+      </c>
+      <c r="L54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="19">
+        <v>2</v>
+      </c>
+      <c r="E55" s="19">
+        <v>7</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="19">
+        <v>3</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="19">
+        <v>100</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="19">
+        <v>2</v>
+      </c>
+      <c r="E56" s="19">
+        <v>8</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="19">
+        <v>100</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="D57" s="15">
+        <v>2</v>
+      </c>
+      <c r="E57" s="15">
+        <v>9</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J57" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="15">
         <v>100</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="5">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="5">
-        <v>3</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="5">
-        <v>100</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="5">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16">
-        <v>9</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="16">
-        <v>100</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17" t="s">
-        <v>73</v>
+      <c r="L57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1721,25 +4462,25 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/screen/screenList_appCore.xlsx
+++ b/screen/screenList_appCore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1283E0-BD1E-44F5-A262-AA6C7D2BE562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF16DA-0081-426A-A071-2C52AB145363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="178">
   <si>
     <t>Descrizione</t>
   </si>
@@ -474,7 +474,94 @@
     <t>(*)</t>
   </si>
   <si>
-    <t>++</t>
+    <t>Indirizzi</t>
+  </si>
+  <si>
+    <t>YAX3M</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
+  </si>
+  <si>
+    <t>Ordine</t>
+  </si>
+  <si>
+    <t>Cerca Cliente</t>
+  </si>
+  <si>
+    <t>Filtri</t>
+  </si>
+  <si>
+    <t>Risultato</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>BPCNUM</t>
+  </si>
+  <si>
+    <t>EECNUM</t>
+  </si>
+  <si>
+    <t>BPAADD</t>
+  </si>
+  <si>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>POSCOD</t>
+  </si>
+  <si>
+    <t>CTY</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>Creazione Cliente</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YCBCGBPC,YSELBCGBPC</t>
+  </si>
+  <si>
+    <t>YCBPDDGBPC,YSELBADBPC, GSELECT</t>
+  </si>
+  <si>
+    <t>YCCRYBPC</t>
+  </si>
+  <si>
+    <t>YCPOSCBPC</t>
+  </si>
+  <si>
+    <t>YCCTYBPC</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>YAX3MU</t>
+  </si>
+  <si>
+    <t>YAX3MB</t>
+  </si>
+  <si>
+    <t>Backend Utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Anagrafica</t>
+  </si>
+  <si>
+    <t>Credenziali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riquadro </t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
 </sst>
 </file>
@@ -512,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -648,11 +735,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,20 +830,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1162,7 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -1053,7 +1202,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1079,191 +1228,212 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="19" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1273,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933A112A-BC8C-491C-85D1-E55A41508E51}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>35</v>
@@ -1388,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H4" s="15">
         <v>100</v>
@@ -1420,7 +1590,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>35</v>
@@ -1452,7 +1622,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H7" s="15">
         <v>100</v>
@@ -1482,7 +1652,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1505,8 +1675,8 @@
         <v>10</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
+      <c r="G10" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="H10" s="15">
         <v>10</v>
@@ -1538,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1562,7 +1732,7 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H13" s="15">
         <v>1000</v>
@@ -1575,8 +1745,325 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>148</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="15">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="15">
+        <v>100</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="15">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="15">
+        <v>100</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21">
+        <v>5</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="15">
+        <v>10</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="15">
+        <v>100</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="26">
+        <v>5</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="24">
+        <v>10</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="29">
+        <v>500</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="32">
+        <v>15</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1587,10 +2074,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,49 +2223,49 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="19" t="s">
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
@@ -1788,49 +2276,49 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="19" t="s">
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q5" s="9" t="s">
@@ -1841,49 +2329,49 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="19" t="s">
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="19" t="s">
+      <c r="N6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
@@ -1894,49 +2382,49 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4">
         <v>100</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="19" t="s">
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="9" t="s">
@@ -1947,49 +2435,49 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4">
         <v>100</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="19" t="s">
+      <c r="N8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q8" s="9"/>
@@ -1998,49 +2486,49 @@
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="4">
         <v>100</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="19">
+      <c r="M9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -2051,49 +2539,49 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="J10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="4">
         <v>100</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="19" t="s">
+      <c r="M10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="9" t="s">
@@ -2104,49 +2592,49 @@
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="J11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="4">
         <v>100</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="19" t="s">
+      <c r="L11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="9" t="s">
@@ -2157,49 +2645,49 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
         <v>7</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4">
         <v>3</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="4">
         <v>100</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="19" t="s">
+      <c r="L12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q12" s="9" t="s">
@@ -2210,49 +2698,49 @@
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
         <v>100</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="19" t="s">
+      <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="9" t="s">
@@ -2369,47 +2857,47 @@
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="J17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="19" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q17" s="9" t="s">
@@ -2420,49 +2908,49 @@
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="19" t="s">
+      <c r="J18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -2473,49 +2961,49 @@
       <c r="A19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="G19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="19" t="s">
+      <c r="N19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q19" s="9" t="s">
@@ -2526,49 +3014,49 @@
       <c r="A20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="J20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="4">
         <v>100</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="19" t="s">
+      <c r="N20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="9" t="s">
@@ -2579,49 +3067,49 @@
       <c r="A21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="19">
-        <v>2</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="19">
+      <c r="J21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="4">
         <v>100</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="19" t="s">
+      <c r="L21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="19" t="s">
+      <c r="N21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q21" s="9" t="s">
@@ -2632,49 +3120,49 @@
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="19">
-        <v>2</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="19" t="s">
+      <c r="G22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="J22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4">
         <v>100</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="19">
+      <c r="M22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="4">
         <v>0</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="9" t="s">
@@ -2685,49 +3173,49 @@
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="19">
-        <v>2</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="G23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="19">
+      <c r="J23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="4">
         <v>100</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="M23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q23" s="9" t="s">
@@ -2738,49 +3226,49 @@
       <c r="A24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4">
         <v>7</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="4">
         <v>3</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="19">
+      <c r="J24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="4">
         <v>100</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="19" t="s">
+      <c r="L24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q24" s="9" t="s">
@@ -2791,49 +3279,49 @@
       <c r="A25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
         <v>8</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="19" t="s">
+      <c r="G25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="J25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="4">
         <v>100</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="19" t="s">
+      <c r="M25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q25" s="9" t="s">
@@ -2950,49 +3438,49 @@
       <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19">
-        <v>2</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="19" t="s">
+      <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="19">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="J29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P29" s="19" t="s">
+      <c r="N29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q29" s="9" t="s">
@@ -3003,49 +3491,49 @@
       <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
         <v>3</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="G30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="19">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19" t="s">
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="19" t="s">
+      <c r="M30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="9" t="s">
@@ -3056,49 +3544,49 @@
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-      <c r="E31" s="19">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="G31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19" t="s">
+      <c r="J31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="19" t="s">
+      <c r="N31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="9" t="s">
@@ -3109,49 +3597,49 @@
       <c r="A32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="19">
-        <v>1</v>
-      </c>
-      <c r="E32" s="19">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="G32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="19">
-        <v>1</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="19" t="s">
+      <c r="J32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="9" t="s">
@@ -3162,49 +3650,49 @@
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="19">
-        <v>1</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="19" t="s">
+      <c r="G33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="19">
-        <v>1</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="19" t="s">
+      <c r="J33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q33" s="9" t="s">
@@ -3215,49 +3703,49 @@
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
         <v>7</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="19" t="s">
+      <c r="G34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="19">
-        <v>1</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="19" t="s">
+      <c r="J34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="19" t="s">
+      <c r="N34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q34" s="9" t="s">
@@ -3268,49 +3756,49 @@
       <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
         <v>8</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="G35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="19">
-        <v>1</v>
-      </c>
-      <c r="L35" s="19" t="s">
+      <c r="J35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="19" t="s">
+      <c r="M35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q35" s="9" t="s">
@@ -3321,49 +3809,49 @@
       <c r="A36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="19">
-        <v>2</v>
-      </c>
-      <c r="E36" s="19">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="19" t="s">
+      <c r="G36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="19" t="s">
+      <c r="J36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" s="19" t="s">
+      <c r="N36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q36" s="9" t="s">
@@ -3374,49 +3862,49 @@
       <c r="A37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="19">
-        <v>2</v>
-      </c>
-      <c r="E37" s="19">
-        <v>2</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="19" t="s">
+      <c r="G37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="19">
+      <c r="J37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="4">
         <v>100</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="19" t="s">
+      <c r="N37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="9" t="s">
@@ -3427,49 +3915,49 @@
       <c r="A38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="19">
-        <v>2</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
         <v>3</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="19" t="s">
+      <c r="G38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="19">
+      <c r="J38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="4">
         <v>100</v>
       </c>
-      <c r="L38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="19" t="s">
+      <c r="L38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="19" t="s">
+      <c r="N38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q38" s="9" t="s">
@@ -3480,49 +3968,49 @@
       <c r="A39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="19">
-        <v>2</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
         <v>4</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="G39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="19">
+      <c r="J39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="4">
         <v>100</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="19" t="s">
+      <c r="M39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q39" s="9" t="s">
@@ -3533,49 +4021,49 @@
       <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="19">
-        <v>2</v>
-      </c>
-      <c r="E40" s="19">
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
         <v>5</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="19" t="s">
+      <c r="G40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="19">
+      <c r="J40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="4">
         <v>100</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" s="19" t="s">
+      <c r="M40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q40" s="9" t="s">
@@ -3586,49 +4074,49 @@
       <c r="A41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="19">
-        <v>2</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
         <v>6</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="G41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="19">
+      <c r="J41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="4">
         <v>100</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P41" s="19" t="s">
+      <c r="M41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q41" s="9" t="s">
@@ -3639,49 +4127,49 @@
       <c r="A42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="19">
-        <v>2</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
         <v>7</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="19" t="s">
+      <c r="G42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="19">
+      <c r="J42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="4">
         <v>100</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P42" s="19" t="s">
+      <c r="M42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q42" s="9" t="s">
@@ -3692,47 +4180,47 @@
       <c r="A43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="19">
-        <v>2</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
         <v>8</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" s="19" t="s">
+      <c r="G43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="19">
+      <c r="J43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="4">
         <v>100</v>
       </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P43" s="19" t="s">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q43" s="9" t="s">
@@ -3823,7 +4311,7 @@
       <c r="J46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="12">
         <v>1</v>
       </c>
       <c r="L46" s="12" t="s">
@@ -3849,49 +4337,49 @@
       <c r="A47" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="19">
-        <v>1</v>
-      </c>
-      <c r="E47" s="19">
-        <v>2</v>
-      </c>
-      <c r="F47" s="19" t="s">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="19">
+      <c r="G47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="4">
         <v>20</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K47" s="20">
-        <v>1</v>
-      </c>
-      <c r="L47" s="19" t="s">
+      <c r="J47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P47" s="19" t="s">
+      <c r="M47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q47" s="9" t="s">
@@ -3902,49 +4390,49 @@
       <c r="A48" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
         <v>3</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="19" t="s">
+      <c r="G48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K48" s="20">
-        <v>1</v>
-      </c>
-      <c r="L48" s="19" t="s">
+      <c r="J48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P48" s="19" t="s">
+      <c r="M48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q48" s="9" t="s">
@@ -3955,49 +4443,49 @@
       <c r="A49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="19">
-        <v>2</v>
-      </c>
-      <c r="E49" s="19">
-        <v>1</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="19" t="s">
+      <c r="G49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M49" s="19" t="s">
+      <c r="J49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O49" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P49" s="19" t="s">
+      <c r="N49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q49" s="9" t="s">
@@ -4008,49 +4496,49 @@
       <c r="A50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="19">
-        <v>2</v>
-      </c>
-      <c r="E50" s="19">
-        <v>2</v>
-      </c>
-      <c r="F50" s="19" t="s">
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="19" t="s">
+      <c r="G50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K50" s="19">
+      <c r="J50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="4">
         <v>100</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" s="19" t="s">
+      <c r="L50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P50" s="19" t="s">
+      <c r="N50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q50" s="9" t="s">
@@ -4061,49 +4549,49 @@
       <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="19">
-        <v>2</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
         <v>3</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="19">
+      <c r="G51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="4">
         <v>20</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="19">
+      <c r="J51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="4">
         <v>100</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="19" t="s">
+      <c r="L51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q51" s="9" t="s">
@@ -4114,49 +4602,49 @@
       <c r="A52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="19">
-        <v>2</v>
-      </c>
-      <c r="E52" s="19">
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
         <v>4</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="19" t="s">
+      <c r="G52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="19">
+      <c r="J52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="4">
         <v>100</v>
       </c>
-      <c r="L52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="19" t="s">
+      <c r="L52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q52" s="9" t="s">
@@ -4167,49 +4655,49 @@
       <c r="A53" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="19">
-        <v>2</v>
-      </c>
-      <c r="E53" s="19">
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
         <v>5</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="19" t="s">
+      <c r="G53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K53" s="19">
+      <c r="J53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="4">
         <v>100</v>
       </c>
-      <c r="L53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P53" s="19" t="s">
+      <c r="L53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q53" s="9" t="s">
@@ -4220,49 +4708,49 @@
       <c r="A54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="19">
-        <v>2</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
         <v>6</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="19" t="s">
+      <c r="G54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="19">
+      <c r="J54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="4">
         <v>100</v>
       </c>
-      <c r="L54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P54" s="19" t="s">
+      <c r="L54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q54" s="9" t="s">
@@ -4273,49 +4761,49 @@
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="19">
-        <v>2</v>
-      </c>
-      <c r="E55" s="19">
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
         <v>7</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="19">
+      <c r="G55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="4">
         <v>3</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="19">
+      <c r="J55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="4">
         <v>100</v>
       </c>
-      <c r="L55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O55" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P55" s="19" t="s">
+      <c r="L55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q55" s="9" t="s">
@@ -4326,49 +4814,49 @@
       <c r="A56" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="19">
-        <v>2</v>
-      </c>
-      <c r="E56" s="19">
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
         <v>8</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="19" t="s">
+      <c r="G56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" s="19">
+      <c r="J56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="4">
         <v>100</v>
       </c>
-      <c r="L56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O56" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P56" s="19" t="s">
+      <c r="L56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q56" s="9" t="s">
@@ -4426,6 +4914,536 @@
       </c>
       <c r="Q57" s="16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="12">
+        <v>1</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="4">
+        <v>100</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="4">
+        <v>100</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="4">
+        <v>100</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>5</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="4">
+        <v>100</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="15">
+        <v>2</v>
+      </c>
+      <c r="E68" s="15">
+        <v>6</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="23">
+        <v>40</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" s="15">
+        <v>100</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/screen/screenList_appCore.xlsx
+++ b/screen/screenList_appCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D7BFE-138D-4AF4-A852-887D4183DCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8326B1-6B75-44F4-B630-0BAF4F048221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="273">
   <si>
     <t>Descrizione</t>
   </si>
@@ -829,6 +829,24 @@
   </si>
   <si>
     <t>YCSERCSTK,YSELSERSTK,GSELECT</t>
+  </si>
+  <si>
+    <t>Sito Magazzino</t>
+  </si>
+  <si>
+    <t>Famiglia  Movimenti</t>
+  </si>
+  <si>
+    <t>Unità magazzino</t>
+  </si>
+  <si>
+    <t>Quantità UM</t>
+  </si>
+  <si>
+    <t>Ubicazione</t>
+  </si>
+  <si>
+    <t>Tipo Ubicazione</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,9 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,27 +1223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1554,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1587,7 +1583,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1616,7 +1612,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1645,7 +1641,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1674,7 +1670,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>139</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1758,7 +1754,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1787,7 +1783,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>174</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -2605,8 +2601,8 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99:A114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2713,7 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2732,7 +2728,9 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>267</v>
+      </c>
       <c r="G3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2778,50 +2776,52 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="29">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29" t="s">
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="29" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="9" t="s">
@@ -2833,50 +2833,52 @@
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="29">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29" t="s">
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U5" s="9" t="s">
@@ -2888,50 +2890,50 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="29" t="s">
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U6" s="9" t="s">
@@ -2943,50 +2945,52 @@
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="29" t="s">
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="29">
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4">
         <v>100</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="29" t="s">
+      <c r="R7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U7" s="9" t="s">
@@ -2998,50 +3002,52 @@
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="F8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="29" t="s">
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="K8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4">
         <v>100</v>
       </c>
-      <c r="M8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="29" t="s">
+      <c r="M8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U8" s="9"/>
@@ -3051,50 +3057,52 @@
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="29">
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4">
         <v>100</v>
       </c>
-      <c r="M9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="29">
+      <c r="M9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U9" s="9" t="s">
@@ -3106,50 +3114,52 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="29" t="s">
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="29">
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
         <v>100</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="29" t="s">
+      <c r="M10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U10" s="9" t="s">
@@ -3161,50 +3171,52 @@
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="29" t="s">
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="29">
+      <c r="K11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="4">
         <v>100</v>
       </c>
-      <c r="M11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="29" t="s">
+      <c r="M11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="29" t="s">
+      <c r="T11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U11" s="9" t="s">
@@ -3216,50 +3228,52 @@
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="4">
         <v>7</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="29">
+      <c r="K12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="4">
         <v>100</v>
       </c>
-      <c r="M12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="29" t="s">
+      <c r="M12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U12" s="9" t="s">
@@ -3271,50 +3285,52 @@
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="F13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="29">
+      <c r="K13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="4">
         <v>100</v>
       </c>
-      <c r="M13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="29" t="s">
+      <c r="M13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="29" t="s">
+      <c r="T13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U13" s="9" t="s">
@@ -3335,7 +3351,9 @@
       <c r="E14" s="15">
         <v>9</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="G14" s="15" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3395,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3392,7 +3410,9 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>267</v>
+      </c>
       <c r="G16" s="12" t="s">
         <v>46</v>
       </c>
@@ -3438,48 +3458,50 @@
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="29" t="s">
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="29">
-        <v>1</v>
-      </c>
-      <c r="M17" s="29" t="s">
+      <c r="K17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="29" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U17" s="9" t="s">
@@ -3491,50 +3513,52 @@
       <c r="B18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="29">
-        <v>1</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="29" t="s">
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="29">
-        <v>1</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29" t="s">
+      <c r="K18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U18" s="9" t="s">
@@ -3546,50 +3570,50 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="29">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="29" t="s">
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="29" t="s">
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U19" s="9" t="s">
@@ -3601,50 +3625,52 @@
       <c r="B20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="H20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="29">
+      <c r="K20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="4">
         <v>100</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29" t="s">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="29" t="s">
+      <c r="R20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="29" t="s">
+      <c r="T20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U20" s="9" t="s">
@@ -3656,50 +3682,52 @@
       <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
+      <c r="F21" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="H21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="29">
+      <c r="K21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
         <v>100</v>
       </c>
-      <c r="M21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S21" s="29" t="s">
+      <c r="M21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="29" t="s">
+      <c r="T21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U21" s="9" t="s">
@@ -3711,50 +3739,52 @@
       <c r="B22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29" t="s">
+      <c r="F22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="29" t="s">
+      <c r="H22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="29">
+      <c r="K22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="4">
         <v>100</v>
       </c>
-      <c r="M22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="29">
+      <c r="M22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="4">
         <v>0</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T22" s="29" t="s">
+      <c r="T22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U22" s="9" t="s">
@@ -3766,50 +3796,52 @@
       <c r="B23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29" t="s">
+      <c r="F23" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="29" t="s">
+      <c r="H23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="29">
+      <c r="K23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4">
         <v>100</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="29" t="s">
+      <c r="M23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U23" s="9" t="s">
@@ -3821,50 +3853,52 @@
       <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="4">
         <v>7</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="29">
+      <c r="H24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="29">
+      <c r="K24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="4">
         <v>100</v>
       </c>
-      <c r="M24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" s="29" t="s">
+      <c r="M24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U24" s="9" t="s">
@@ -3876,50 +3910,52 @@
       <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="4">
         <v>8</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="29" t="s">
+      <c r="H25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="29">
+      <c r="K25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4">
         <v>100</v>
       </c>
-      <c r="M25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="29" t="s">
+      <c r="M25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U25" s="9" t="s">
@@ -3940,7 +3976,9 @@
       <c r="E26" s="15">
         <v>9</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="G26" s="15" t="s">
         <v>66</v>
       </c>
@@ -3982,10 +4020,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -4039,10 +4077,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4096,10 +4132,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -4153,10 +4187,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4210,10 +4242,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -4267,10 +4297,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -4324,10 +4352,8 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -4381,10 +4407,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4438,10 +4462,8 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -4495,10 +4517,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -4552,10 +4572,8 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -4609,10 +4627,8 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4666,10 +4682,8 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4723,10 +4737,8 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -4780,10 +4792,8 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4837,10 +4847,8 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -4892,10 +4900,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -4949,7 +4955,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>131</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -5010,50 +5016,50 @@
       <c r="B47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29" t="s">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="29">
+      <c r="H47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="4">
         <v>20</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="J47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="29">
-        <v>1</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T47" s="29" t="s">
+      <c r="K47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U47" s="9" t="s">
@@ -5065,50 +5071,50 @@
       <c r="B48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="29">
-        <v>1</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
         <v>3</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="29" t="s">
+      <c r="H48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K48" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="29">
-        <v>1</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S48" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T48" s="29" t="s">
+      <c r="K48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U48" s="9" t="s">
@@ -5120,50 +5126,50 @@
       <c r="B49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="4">
         <v>2</v>
       </c>
-      <c r="E49" s="29">
-        <v>1</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29" t="s">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="29" t="s">
+      <c r="H49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S49" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T49" s="29" t="s">
+      <c r="K49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U49" s="9" t="s">
@@ -5175,50 +5181,50 @@
       <c r="B50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="4">
         <v>2</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29" t="s">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="29" t="s">
+      <c r="H50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="29">
+      <c r="K50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="4">
         <v>100</v>
       </c>
-      <c r="M50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29" t="s">
+      <c r="M50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S50" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="29" t="s">
+      <c r="R50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U50" s="9" t="s">
@@ -5230,50 +5236,50 @@
       <c r="B51" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="4">
         <v>2</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="4">
         <v>3</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29" t="s">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="29">
+      <c r="H51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="4">
         <v>20</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="J51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L51" s="29">
+      <c r="K51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="4">
         <v>100</v>
       </c>
-      <c r="M51" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R51" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S51" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T51" s="29" t="s">
+      <c r="M51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U51" s="9" t="s">
@@ -5285,50 +5291,50 @@
       <c r="B52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="4">
         <v>2</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="4">
         <v>4</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="29" t="s">
+      <c r="H52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="29">
+      <c r="K52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="4">
         <v>100</v>
       </c>
-      <c r="M52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T52" s="29" t="s">
+      <c r="M52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U52" s="9" t="s">
@@ -5340,50 +5346,50 @@
       <c r="B53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="4">
         <v>2</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="4">
         <v>5</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="29" t="s">
+      <c r="H53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="29">
+      <c r="K53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="4">
         <v>100</v>
       </c>
-      <c r="M53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S53" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T53" s="29" t="s">
+      <c r="M53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U53" s="9" t="s">
@@ -5395,50 +5401,50 @@
       <c r="B54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="4">
         <v>2</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="4">
         <v>6</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29" t="s">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="29" t="s">
+      <c r="H54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="29">
+      <c r="K54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" s="4">
         <v>100</v>
       </c>
-      <c r="M54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T54" s="29" t="s">
+      <c r="M54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U54" s="9" t="s">
@@ -5450,50 +5456,50 @@
       <c r="B55" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="4">
         <v>2</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="4">
         <v>7</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29" t="s">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="29">
+      <c r="H55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="4">
         <v>3</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K55" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L55" s="29">
+      <c r="K55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="4">
         <v>100</v>
       </c>
-      <c r="M55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T55" s="29" t="s">
+      <c r="M55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U55" s="9" t="s">
@@ -5505,50 +5511,50 @@
       <c r="B56" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="4">
         <v>2</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="4">
         <v>8</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J56" s="29" t="s">
+      <c r="H56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="29">
+      <c r="K56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="4">
         <v>100</v>
       </c>
-      <c r="M56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T56" s="29" t="s">
+      <c r="M56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U56" s="9" t="s">
@@ -5611,7 +5617,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -6226,60 +6232,60 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="29">
-        <v>1</v>
-      </c>
-      <c r="E71" s="29">
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
         <v>2</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29" t="s">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H71" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J71" s="29" t="s">
+      <c r="H71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K71" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="29">
-        <v>1</v>
-      </c>
-      <c r="M71" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N71" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O71" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P71" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q71" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R71" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S71" s="29" t="s">
+      <c r="K71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T71" s="29" t="s">
+      <c r="T71" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U71" s="9" t="s">
@@ -6291,56 +6297,56 @@
       <c r="B72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="29">
-        <v>1</v>
-      </c>
-      <c r="E72" s="29">
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
         <v>3</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29" t="s">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H72" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="29">
+      <c r="H72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="4">
         <v>20</v>
       </c>
-      <c r="J72" s="29" t="s">
+      <c r="J72" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K72" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="29">
-        <v>1</v>
-      </c>
-      <c r="M72" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N72" s="29" t="s">
+      <c r="K72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O72" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P72" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q72" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R72" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S72" s="29" t="s">
+      <c r="O72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T72" s="29" t="s">
+      <c r="T72" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U72" s="9" t="s">
@@ -6352,56 +6358,56 @@
       <c r="B73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="29">
-        <v>1</v>
-      </c>
-      <c r="E73" s="29">
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
         <v>4</v>
       </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29" t="s">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H73" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="29">
+      <c r="H73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="4">
         <v>20</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K73" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="29">
-        <v>1</v>
-      </c>
-      <c r="M73" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N73" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O73" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P73" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q73" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R73" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S73" s="29" t="s">
+      <c r="K73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T73" s="29" t="s">
+      <c r="T73" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U73" s="9" t="s">
@@ -6413,56 +6419,56 @@
       <c r="B74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="29">
-        <v>1</v>
-      </c>
-      <c r="E74" s="29">
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
         <v>5</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29" t="s">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H74" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" s="29" t="s">
+      <c r="H74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K74" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="29">
-        <v>1</v>
-      </c>
-      <c r="M74" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N74" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O74" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P74" s="29" t="s">
+      <c r="K74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="29" t="s">
+      <c r="Q74" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R74" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S74" s="29" t="s">
+      <c r="R74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S74" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T74" s="29" t="s">
+      <c r="T74" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U74" s="9" t="s">
@@ -6474,56 +6480,56 @@
       <c r="B75" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="29">
-        <v>1</v>
-      </c>
-      <c r="E75" s="29">
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
         <v>6</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29" t="s">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H75" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" s="29" t="s">
+      <c r="H75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K75" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="29">
-        <v>1</v>
-      </c>
-      <c r="M75" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N75" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O75" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P75" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q75" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R75" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S75" s="29" t="s">
+      <c r="K75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T75" s="29" t="s">
+      <c r="T75" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U75" s="9" t="s">
@@ -6535,56 +6541,56 @@
       <c r="B76" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="29">
-        <v>1</v>
-      </c>
-      <c r="E76" s="29">
-        <v>1</v>
-      </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29" t="s">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="29">
+      <c r="H76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="4">
         <v>20</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K76" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="29">
-        <v>1</v>
-      </c>
-      <c r="M76" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N76" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O76" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P76" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q76" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R76" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S76" s="29" t="s">
+      <c r="K76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T76" s="29" t="s">
+      <c r="T76" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U76" s="9" t="s">
@@ -6596,56 +6602,56 @@
       <c r="B77" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="29">
-        <v>1</v>
-      </c>
-      <c r="E77" s="29">
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
         <v>2</v>
       </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29" t="s">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H77" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="29">
+      <c r="H77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="4">
         <v>8</v>
       </c>
-      <c r="J77" s="29" t="s">
+      <c r="J77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K77" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="29">
-        <v>1</v>
-      </c>
-      <c r="M77" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N77" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P77" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q77" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R77" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S77" s="29" t="s">
+      <c r="K77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T77" s="29" t="s">
+      <c r="T77" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U77" s="9" t="s">
@@ -6657,56 +6663,56 @@
       <c r="B78" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D78" s="29">
-        <v>1</v>
-      </c>
-      <c r="E78" s="29">
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
         <v>3</v>
       </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29" t="s">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H78" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="29" t="s">
+      <c r="H78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K78" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L78" s="29">
-        <v>1</v>
-      </c>
-      <c r="M78" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N78" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O78" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P78" s="29" t="s">
+      <c r="K78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P78" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q78" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R78" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S78" s="29" t="s">
+      <c r="Q78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S78" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T78" s="29" t="s">
+      <c r="T78" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U78" s="9" t="s">
@@ -6718,56 +6724,56 @@
       <c r="B79" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D79" s="29">
-        <v>1</v>
-      </c>
-      <c r="E79" s="29">
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
         <v>4</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29" t="s">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H79" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="29" t="s">
+      <c r="H79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K79" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="29">
-        <v>1</v>
-      </c>
-      <c r="M79" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N79" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O79" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P79" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q79" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R79" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S79" s="29" t="s">
+      <c r="K79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T79" s="29" t="s">
+      <c r="T79" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U79" s="9" t="s">
@@ -6779,56 +6785,56 @@
       <c r="B80" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="29">
-        <v>1</v>
-      </c>
-      <c r="E80" s="29">
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
         <v>5</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29" t="s">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H80" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="29" t="s">
+      <c r="H80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K80" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L80" s="29">
-        <v>1</v>
-      </c>
-      <c r="M80" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N80" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O80" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P80" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q80" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R80" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S80" s="29" t="s">
+      <c r="K80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S80" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T80" s="29" t="s">
+      <c r="T80" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U80" s="9" t="s">
@@ -6840,56 +6846,56 @@
       <c r="B81" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="29">
-        <v>1</v>
-      </c>
-      <c r="E81" s="29">
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
         <v>6</v>
       </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29" t="s">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H81" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I81" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="29" t="s">
+      <c r="H81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K81" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="29">
-        <v>1</v>
-      </c>
-      <c r="M81" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N81" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O81" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P81" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q81" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R81" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S81" s="29" t="s">
+      <c r="K81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S81" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T81" s="29" t="s">
+      <c r="T81" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U81" s="9" t="s">
@@ -6961,7 +6967,7 @@
       <c r="M83" s="4"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -7030,61 +7036,61 @@
       <c r="B85" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="29">
-        <v>1</v>
-      </c>
-      <c r="E85" s="29">
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H85" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I85" s="29">
+      <c r="H85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="4">
         <v>15</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="J85" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K85" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="29">
-        <v>1</v>
-      </c>
-      <c r="M85" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N85" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P85" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q85" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R85" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S85" s="29" t="s">
+      <c r="K85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S85" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T85" s="29" t="s">
+      <c r="T85" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U85" s="42" t="s">
+      <c r="U85" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7093,61 +7099,61 @@
       <c r="B86" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="29">
-        <v>1</v>
-      </c>
-      <c r="E86" s="29">
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
         <v>3</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I86" s="29">
+      <c r="H86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="4">
         <v>20</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="J86" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K86" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L86" s="29">
-        <v>1</v>
-      </c>
-      <c r="M86" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N86" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P86" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q86" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R86" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S86" s="29" t="s">
+      <c r="K86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S86" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T86" s="29" t="s">
+      <c r="T86" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U86" s="42" t="s">
+      <c r="U86" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7156,58 +7162,58 @@
       <c r="B87" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D87" s="29">
-        <v>1</v>
-      </c>
-      <c r="E87" s="29">
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
         <v>4</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F87" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H87" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I87" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J87" s="29" t="s">
+      <c r="H87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K87" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="29">
-        <v>1</v>
-      </c>
-      <c r="M87" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N87" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O87" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P87" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q87" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R87" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S87" s="29" t="s">
+      <c r="K87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="4">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S87" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T87" s="29" t="s">
+      <c r="T87" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U87" s="9" t="s">
@@ -7219,61 +7225,61 @@
       <c r="B88" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="4">
         <v>2</v>
       </c>
-      <c r="E88" s="29">
-        <v>1</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" s="29" t="s">
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J88" s="29" t="s">
+      <c r="H88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M88" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N88" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O88" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P88" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q88" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R88" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S88" s="29" t="s">
+      <c r="K88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S88" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T88" s="29" t="s">
+      <c r="T88" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U88" s="42" t="s">
+      <c r="U88" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7282,61 +7288,61 @@
       <c r="B89" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="4">
         <v>2</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="4">
         <v>2</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F89" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H89" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J89" s="29" t="s">
+      <c r="H89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K89" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="29">
+      <c r="K89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="4">
         <v>100</v>
       </c>
-      <c r="M89" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N89" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O89" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P89" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q89" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R89" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S89" s="29" t="s">
+      <c r="M89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S89" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T89" s="29" t="s">
+      <c r="T89" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U89" s="42" t="s">
+      <c r="U89" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7345,61 +7351,61 @@
       <c r="B90" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="4">
         <v>2</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="4">
         <v>3</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J90" s="29" t="s">
+      <c r="H90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K90" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L90" s="29">
+      <c r="K90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="4">
         <v>100</v>
       </c>
-      <c r="M90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N90" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O90" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R90" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S90" s="29" t="s">
+      <c r="M90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S90" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T90" s="29" t="s">
+      <c r="T90" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U90" s="42" t="s">
+      <c r="U90" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7408,61 +7414,61 @@
       <c r="B91" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="4">
         <v>2</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="4">
         <v>4</v>
       </c>
-      <c r="F91" s="29" t="s">
+      <c r="F91" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="29" t="s">
+      <c r="H91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K91" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="29">
+      <c r="K91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="4">
         <v>100</v>
       </c>
-      <c r="M91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N91" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O91" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R91" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S91" s="29" t="s">
+      <c r="M91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S91" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T91" s="29" t="s">
+      <c r="T91" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U91" s="42" t="s">
+      <c r="U91" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7471,61 +7477,61 @@
       <c r="B92" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="4">
         <v>2</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="4">
         <v>5</v>
       </c>
-      <c r="F92" s="29" t="s">
+      <c r="F92" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H92" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="29" t="s">
+      <c r="H92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K92" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L92" s="29">
+      <c r="K92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" s="4">
         <v>100</v>
       </c>
-      <c r="M92" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N92" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O92" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P92" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q92" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="R92" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S92" s="29" t="s">
+      <c r="M92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S92" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T92" s="29" t="s">
+      <c r="T92" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U92" s="42" t="s">
+      <c r="U92" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7534,61 +7540,61 @@
       <c r="B93" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D93" s="4">
         <v>2</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="4">
         <v>6</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F93" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="29" t="s">
+      <c r="H93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K93" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L93" s="29">
+      <c r="K93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="4">
         <v>100</v>
       </c>
-      <c r="M93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N93" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O93" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R93" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S93" s="29" t="s">
+      <c r="M93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S93" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T93" s="29" t="s">
+      <c r="T93" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U93" s="42" t="s">
+      <c r="U93" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7597,61 +7603,61 @@
       <c r="B94" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D94" s="4">
         <v>2</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="4">
         <v>7</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F94" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="29" t="s">
+      <c r="H94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K94" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L94" s="29">
+      <c r="K94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="4">
         <v>100</v>
       </c>
-      <c r="M94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N94" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O94" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R94" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S94" s="29" t="s">
+      <c r="M94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S94" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T94" s="29" t="s">
+      <c r="T94" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U94" s="42" t="s">
+      <c r="U94" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7660,61 +7666,61 @@
       <c r="B95" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="4">
         <v>2</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="4">
         <v>8</v>
       </c>
-      <c r="F95" s="29" t="s">
+      <c r="F95" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="29" t="s">
+      <c r="H95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K95" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="29">
+      <c r="K95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" s="4">
         <v>100</v>
       </c>
-      <c r="M95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N95" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R95" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S95" s="29" t="s">
+      <c r="M95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S95" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T95" s="29" t="s">
+      <c r="T95" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U95" s="42" t="s">
+      <c r="U95" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7723,61 +7729,61 @@
       <c r="B96" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="4">
         <v>2</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="4">
         <v>9</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="29" t="s">
+      <c r="H96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K96" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L96" s="29">
+      <c r="K96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" s="4">
         <v>100</v>
       </c>
-      <c r="M96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N96" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O96" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="P96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="R96" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="S96" s="29" t="s">
+      <c r="M96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S96" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T96" s="29" t="s">
+      <c r="T96" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="U96" s="42" t="s">
+      <c r="U96" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -7840,63 +7846,63 @@
       <c r="T97" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="U97" s="43" t="s">
+      <c r="U97" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="36" t="s">
+      <c r="B99" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="37">
-        <v>1</v>
-      </c>
-      <c r="E99" s="37">
-        <v>1</v>
-      </c>
-      <c r="F99" s="37" t="s">
+      <c r="D99" s="12">
+        <v>1</v>
+      </c>
+      <c r="E99" s="12">
+        <v>1</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G99" s="37" t="s">
+      <c r="G99" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H99" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I99" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J99" s="37" t="s">
+      <c r="H99" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K99" s="37" t="s">
+      <c r="K99" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="L99" s="37">
-        <v>1</v>
-      </c>
-      <c r="M99" s="37" t="s">
+      <c r="L99" s="12">
+        <v>1</v>
+      </c>
+      <c r="M99" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N99" s="37" t="s">
+      <c r="N99" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="O99" s="37" t="s">
+      <c r="O99" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="P99" s="37" t="s">
+      <c r="P99" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q99" s="37" t="s">
+      <c r="Q99" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="R99" s="37" t="s">
+      <c r="R99" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S99" s="12" t="s">
@@ -7905,67 +7911,67 @@
       <c r="T99" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="U99" s="38" t="s">
+      <c r="U99" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="39" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" t="s">
         <v>174</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D100" s="35">
-        <v>1</v>
-      </c>
-      <c r="E100" s="35">
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
         <v>2</v>
       </c>
-      <c r="F100" s="35" t="s">
+      <c r="F100" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G100" s="35" t="s">
+      <c r="G100" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H100" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I100" s="29">
+      <c r="H100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="4">
         <v>5</v>
       </c>
-      <c r="J100" s="35" t="s">
+      <c r="J100" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K100" s="35" t="s">
+      <c r="K100" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L100" s="35">
-        <v>1</v>
-      </c>
-      <c r="M100" s="35" t="s">
+      <c r="L100" s="4">
+        <v>1</v>
+      </c>
+      <c r="M100" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N100" s="35" t="s">
+      <c r="N100" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O100" s="35" t="s">
+      <c r="O100" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P100" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q100" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R100" s="35" t="s">
+      <c r="P100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R100" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="S100" s="29" t="s">
+      <c r="S100" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T100" s="29" t="s">
+      <c r="T100" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U100" s="9" t="s">
@@ -7973,62 +7979,62 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="39" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D101" s="35">
-        <v>1</v>
-      </c>
-      <c r="E101" s="35">
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
         <v>3</v>
       </c>
-      <c r="F101" s="35" t="s">
+      <c r="F101" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G101" s="35" t="s">
+      <c r="G101" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H101" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J101" s="35" t="s">
+      <c r="H101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K101" s="35" t="s">
+      <c r="K101" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L101" s="35">
-        <v>1</v>
-      </c>
-      <c r="M101" s="35" t="s">
+      <c r="L101" s="4">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N101" s="35" t="s">
+      <c r="N101" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O101" s="35" t="s">
+      <c r="O101" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P101" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q101" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R101" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S101" s="29" t="s">
+      <c r="P101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S101" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T101" s="29" t="s">
+      <c r="T101" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U101" s="9" t="s">
@@ -8036,62 +8042,62 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="39" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D102" s="35">
-        <v>1</v>
-      </c>
-      <c r="E102" s="35">
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="4">
         <v>4</v>
       </c>
-      <c r="F102" s="35" t="s">
+      <c r="F102" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G102" s="35" t="s">
+      <c r="G102" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H102" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J102" s="35" t="s">
+      <c r="H102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K102" s="35" t="s">
+      <c r="K102" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L102" s="35">
-        <v>1</v>
-      </c>
-      <c r="M102" s="35" t="s">
+      <c r="L102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N102" s="35" t="s">
+      <c r="N102" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O102" s="35" t="s">
+      <c r="O102" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P102" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q102" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R102" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S102" s="29" t="s">
+      <c r="P102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S102" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T102" s="29" t="s">
+      <c r="T102" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U102" s="9" t="s">
@@ -8099,62 +8105,62 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="39" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D103" s="35">
-        <v>1</v>
-      </c>
-      <c r="E103" s="35">
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
         <v>5</v>
       </c>
-      <c r="F103" s="35" t="s">
+      <c r="F103" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G103" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H103" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="35" t="s">
+      <c r="H103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K103" s="35" t="s">
+      <c r="K103" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L103" s="35">
-        <v>1</v>
-      </c>
-      <c r="M103" s="35" t="s">
+      <c r="L103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N103" s="35" t="s">
+      <c r="N103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O103" s="35" t="s">
+      <c r="O103" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P103" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q103" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R103" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S103" s="29" t="s">
+      <c r="P103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S103" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T103" s="29" t="s">
+      <c r="T103" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U103" s="9" t="s">
@@ -8162,62 +8168,62 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="39" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="35">
-        <v>1</v>
-      </c>
-      <c r="E104" s="35">
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="4">
         <v>6</v>
       </c>
-      <c r="F104" s="35" t="s">
+      <c r="F104" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G104" s="35" t="s">
+      <c r="G104" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H104" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J104" s="35" t="s">
+      <c r="H104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K104" s="35" t="s">
+      <c r="K104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L104" s="35">
-        <v>1</v>
-      </c>
-      <c r="M104" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N104" s="35" t="s">
+      <c r="L104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N104" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O104" s="35" t="s">
+      <c r="O104" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P104" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q104" s="35" t="s">
+      <c r="P104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="R104" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S104" s="29" t="s">
+      <c r="R104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S104" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T104" s="29" t="s">
+      <c r="T104" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U104" s="9" t="s">
@@ -8225,62 +8231,62 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="39" t="s">
+      <c r="A105" s="36"/>
+      <c r="B105" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="4">
         <v>2</v>
       </c>
-      <c r="E105" s="35">
-        <v>1</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G105" s="35" t="s">
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J105" s="35" t="s">
+      <c r="H105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M105" s="35" t="s">
+      <c r="K105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N105" s="35" t="s">
+      <c r="N105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O105" s="35" t="s">
+      <c r="O105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P105" s="35" t="s">
+      <c r="P105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q105" s="35" t="s">
+      <c r="Q105" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="R105" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S105" s="29" t="s">
+      <c r="R105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S105" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T105" s="29" t="s">
+      <c r="T105" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U105" s="9" t="s">
@@ -8288,62 +8294,62 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="39" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="35">
+      <c r="D106" s="4">
         <v>2</v>
       </c>
-      <c r="E106" s="35">
+      <c r="E106" s="4">
         <v>2</v>
       </c>
-      <c r="F106" s="35" t="s">
+      <c r="F106" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G106" s="35" t="s">
+      <c r="G106" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H106" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J106" s="35" t="s">
+      <c r="H106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K106" s="35" t="s">
+      <c r="K106" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L106" s="35">
+      <c r="L106" s="4">
         <v>100</v>
       </c>
-      <c r="M106" s="35" t="s">
+      <c r="M106" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N106" s="35" t="s">
+      <c r="N106" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O106" s="35" t="s">
+      <c r="O106" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P106" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q106" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R106" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S106" s="29" t="s">
+      <c r="P106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S106" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T106" s="29" t="s">
+      <c r="T106" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U106" s="9" t="s">
@@ -8351,62 +8357,62 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="39" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" t="s">
         <v>174</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="4">
         <v>2</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="4">
         <v>3</v>
       </c>
-      <c r="F107" s="35" t="s">
+      <c r="F107" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G107" s="35" t="s">
+      <c r="G107" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H107" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I107" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J107" s="35" t="s">
+      <c r="H107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K107" s="35" t="s">
+      <c r="K107" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L107" s="35">
+      <c r="L107" s="4">
         <v>100</v>
       </c>
-      <c r="M107" s="35" t="s">
+      <c r="M107" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N107" s="35" t="s">
+      <c r="N107" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O107" s="35" t="s">
+      <c r="O107" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P107" s="35" t="s">
+      <c r="P107" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q107" s="35" t="s">
+      <c r="Q107" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="R107" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S107" s="29" t="s">
+      <c r="R107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S107" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T107" s="29" t="s">
+      <c r="T107" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U107" s="9" t="s">
@@ -8414,62 +8420,62 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="39" t="s">
+      <c r="A108" s="36"/>
+      <c r="B108" t="s">
         <v>174</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="4">
         <v>2</v>
       </c>
-      <c r="E108" s="35">
+      <c r="E108" s="4">
         <v>4</v>
       </c>
-      <c r="F108" s="35" t="s">
+      <c r="F108" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="G108" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J108" s="35" t="s">
+      <c r="H108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K108" s="35" t="s">
+      <c r="K108" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L108" s="35">
+      <c r="L108" s="4">
         <v>100</v>
       </c>
-      <c r="M108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N108" s="35" t="s">
+      <c r="M108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N108" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O108" s="35" t="s">
+      <c r="O108" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R108" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S108" s="29" t="s">
+      <c r="P108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S108" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T108" s="29" t="s">
+      <c r="T108" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U108" s="9" t="s">
@@ -8477,62 +8483,62 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="39" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="4">
         <v>2</v>
       </c>
-      <c r="E109" s="35">
+      <c r="E109" s="4">
         <v>5</v>
       </c>
-      <c r="F109" s="35" t="s">
+      <c r="F109" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H109" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I109" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J109" s="35" t="s">
+      <c r="H109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K109" s="35" t="s">
+      <c r="K109" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L109" s="35">
+      <c r="L109" s="4">
         <v>100</v>
       </c>
-      <c r="M109" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N109" s="35" t="s">
+      <c r="M109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N109" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O109" s="35" t="s">
+      <c r="O109" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P109" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q109" s="35" t="s">
+      <c r="P109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q109" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="R109" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S109" s="29" t="s">
+      <c r="R109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S109" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T109" s="29" t="s">
+      <c r="T109" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U109" s="9" t="s">
@@ -8540,62 +8546,62 @@
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="39" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="4">
         <v>2</v>
       </c>
-      <c r="E110" s="35">
+      <c r="E110" s="4">
         <v>6</v>
       </c>
-      <c r="F110" s="35" t="s">
+      <c r="F110" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J110" s="35" t="s">
+      <c r="H110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K110" s="35" t="s">
+      <c r="K110" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L110" s="35">
+      <c r="L110" s="4">
         <v>100</v>
       </c>
-      <c r="M110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N110" s="35" t="s">
+      <c r="M110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N110" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O110" s="35" t="s">
+      <c r="O110" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R110" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S110" s="29" t="s">
+      <c r="P110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S110" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T110" s="29" t="s">
+      <c r="T110" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U110" s="9" t="s">
@@ -8603,62 +8609,62 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="39" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="4">
         <v>2</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="4">
         <v>7</v>
       </c>
-      <c r="F111" s="35" t="s">
+      <c r="F111" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G111" s="35" t="s">
+      <c r="G111" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H111" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I111" s="29">
+      <c r="H111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" s="4">
         <v>3</v>
       </c>
-      <c r="J111" s="35" t="s">
+      <c r="J111" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K111" s="35" t="s">
+      <c r="K111" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L111" s="35">
+      <c r="L111" s="4">
         <v>100</v>
       </c>
-      <c r="M111" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N111" s="35" t="s">
+      <c r="M111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N111" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O111" s="35" t="s">
+      <c r="O111" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P111" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q111" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R111" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S111" s="29" t="s">
+      <c r="P111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S111" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T111" s="29" t="s">
+      <c r="T111" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U111" s="9" t="s">
@@ -8666,62 +8672,62 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
-      <c r="B112" s="39" t="s">
+      <c r="A112" s="36"/>
+      <c r="B112" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D112" s="35">
+      <c r="D112" s="4">
         <v>2</v>
       </c>
-      <c r="E112" s="35">
+      <c r="E112" s="4">
         <v>8</v>
       </c>
-      <c r="F112" s="35" t="s">
+      <c r="F112" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G112" s="35" t="s">
+      <c r="G112" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H112" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I112" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J112" s="35" t="s">
+      <c r="H112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K112" s="35" t="s">
+      <c r="K112" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L112" s="35">
+      <c r="L112" s="4">
         <v>100</v>
       </c>
-      <c r="M112" s="35" t="s">
+      <c r="M112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N112" s="35" t="s">
+      <c r="N112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O112" s="35" t="s">
+      <c r="O112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P112" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q112" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R112" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="S112" s="29" t="s">
+      <c r="P112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S112" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T112" s="29" t="s">
+      <c r="T112" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U112" s="9" t="s">
@@ -8729,62 +8735,62 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="39" t="s">
+      <c r="A113" s="36"/>
+      <c r="B113" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D113" s="4">
         <v>2</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E113" s="4">
         <v>9</v>
       </c>
-      <c r="F113" s="35" t="s">
+      <c r="F113" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G113" s="35" t="s">
+      <c r="G113" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H113" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" s="35" t="s">
+      <c r="H113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K113" s="35" t="s">
+      <c r="K113" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L113" s="35">
+      <c r="L113" s="4">
         <v>100</v>
       </c>
-      <c r="M113" s="35" t="s">
+      <c r="M113" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N113" s="35" t="s">
+      <c r="N113" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O113" s="35" t="s">
+      <c r="O113" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P113" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q113" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="R113" s="29">
+      <c r="P113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R113" s="4">
         <v>0</v>
       </c>
-      <c r="S113" s="29" t="s">
+      <c r="S113" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T113" s="29" t="s">
+      <c r="T113" s="4" t="s">
         <v>203</v>
       </c>
       <c r="U113" s="9" t="s">
@@ -8792,56 +8798,56 @@
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
-      <c r="B114" s="40" t="s">
+      <c r="A114" s="32"/>
+      <c r="B114" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="41">
+      <c r="D114" s="15">
         <v>2</v>
       </c>
-      <c r="E114" s="41">
+      <c r="E114" s="15">
         <v>10</v>
       </c>
-      <c r="F114" s="41" t="s">
+      <c r="F114" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G114" s="41" t="s">
+      <c r="G114" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H114" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I114" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="J114" s="41" t="s">
+      <c r="H114" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K114" s="41" t="s">
+      <c r="K114" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="L114" s="41">
+      <c r="L114" s="15">
         <v>100</v>
       </c>
-      <c r="M114" s="41" t="s">
+      <c r="M114" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="N114" s="41" t="s">
+      <c r="N114" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="O114" s="41" t="s">
+      <c r="O114" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="P114" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q114" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="R114" s="41" t="s">
+      <c r="P114" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q114" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R114" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S114" s="15" t="s">
@@ -8855,7 +8861,7 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P115" s="35"/>
+      <c r="P115" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
